--- a/generadas/LETES 182 DIAS 1.xlsx
+++ b/generadas/LETES 182 DIAS 1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t xml:space="preserve">     Licitación Letras del Tesoro Nacional (LETES) en Dólares</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>13-Jun-2016</t>
+    <t>02-Jun-2016</t>
   </si>
   <si>
     <t>DÓLARES</t>
@@ -145,22 +145,31 @@
     <t>13</t>
   </si>
   <si>
-    <t>20-27693246-3</t>
+    <t>20-11097789-2</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>20-21851949-1</t>
+    <t>20-10026983-0</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
+    <t>23-35189677-9</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>27-32990149-7</t>
+  </si>
+  <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>20-33528955-3</t>
   </si>
   <si>
     <t>19</t>
@@ -2463,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="23">
-        <v>3000</v>
+        <v>5300</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>31</v>
@@ -2519,8 +2528,12 @@
       <c r="A16" s="13">
         <v>3</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="19"/>
       <c r="F16" s="36"/>
@@ -2533,7 +2546,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L16" s="26">
         <v>17</v>
@@ -2572,8 +2585,12 @@
       <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="23">
+        <v>7000</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="43"/>
       <c r="E17" s="19"/>
       <c r="F17" s="36"/>
@@ -2586,7 +2603,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" s="26">
         <v>18</v>
@@ -2625,8 +2642,12 @@
       <c r="A18" s="13">
         <v>5</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="23">
+        <v>1800</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="19"/>
       <c r="F18" s="36"/>
@@ -2639,7 +2660,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L18" s="26">
         <v>19</v>
@@ -2692,7 +2713,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="16"/>
       <c r="K19" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L19" s="26">
         <v>20</v>
@@ -2745,7 +2766,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="16"/>
       <c r="K20" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L20" s="26">
         <v>21</v>
@@ -2798,7 +2819,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L21" s="26">
         <v>23</v>
@@ -2851,7 +2872,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L22" s="26">
         <v>24</v>
@@ -2904,7 +2925,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L23" s="26">
         <v>25</v>
@@ -2941,7 +2962,7 @@
     </row>
     <row r="24" spans="1:40" customHeight="1" ht="20.1">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="15" t="str">
         <f>+SUM(B14:B23)</f>
@@ -2951,7 +2972,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L24" s="26">
         <v>26</v>
@@ -2991,7 +3012,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L25" s="26">
         <v>27</v>
@@ -3028,14 +3049,14 @@
     </row>
     <row r="26" spans="1:40" customHeight="1" ht="18">
       <c r="D26" s="41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E26" s="41"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L26" s="26">
         <v>28</v>
@@ -3075,7 +3096,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L27" s="26">
         <v>29</v>
@@ -3110,13 +3131,13 @@
     </row>
     <row r="28" spans="1:40" customHeight="1" ht="15.75">
       <c r="A28" s="18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L28" s="26">
         <v>30</v>
@@ -3153,7 +3174,7 @@
     </row>
     <row r="29" spans="1:40" customHeight="1" ht="14.25">
       <c r="A29" s="28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -3164,7 +3185,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L29" s="26">
         <v>31</v>
@@ -3210,7 +3231,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L30" s="26">
         <v>32</v>
@@ -3256,7 +3277,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L31" s="26">
         <v>33</v>
@@ -3302,7 +3323,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L32" s="26">
         <v>35</v>
@@ -3347,7 +3368,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L33" s="26">
         <v>36</v>
@@ -3387,7 +3408,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L34" s="26">
         <v>37</v>
@@ -3427,7 +3448,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L35" s="26">
         <v>38</v>
@@ -3467,7 +3488,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L36" s="26">
         <v>40</v>
@@ -3507,7 +3528,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L37" s="26">
         <v>42</v>
@@ -3547,7 +3568,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L38" s="26">
         <v>43</v>
@@ -3587,7 +3608,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L39" s="26">
         <v>44</v>
@@ -3627,7 +3648,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L40" s="26">
         <v>45</v>
@@ -3667,7 +3688,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L41" s="26">
         <v>46</v>
@@ -3707,7 +3728,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L42" s="26">
         <v>47</v>
@@ -3747,7 +3768,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L43" s="26">
         <v>48</v>
@@ -3787,7 +3808,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L44" s="26">
         <v>49</v>
@@ -3827,7 +3848,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L45" s="26">
         <v>50</v>
@@ -3867,7 +3888,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L46" s="26">
         <v>51</v>
@@ -3907,7 +3928,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L47" s="26">
         <v>52</v>
@@ -3947,7 +3968,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L48" s="26">
         <v>53</v>
@@ -3987,7 +4008,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L49" s="26">
         <v>55</v>
@@ -4025,7 +4046,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L50" s="26">
         <v>56</v>
@@ -4065,7 +4086,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L51" s="26">
         <v>57</v>
@@ -4105,7 +4126,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L52" s="26">
         <v>59</v>
@@ -4145,7 +4166,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L53" s="26">
         <v>60</v>
@@ -4185,7 +4206,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L54" s="26">
         <v>61</v>
@@ -4225,7 +4246,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L55" s="26">
         <v>63</v>
@@ -4265,7 +4286,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L56" s="26">
         <v>64</v>
@@ -4305,7 +4326,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L57" s="26">
         <v>65</v>
@@ -4345,7 +4366,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L58" s="26">
         <v>67</v>
@@ -4385,7 +4406,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L59" s="26">
         <v>68</v>
@@ -4425,7 +4446,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L60" s="26">
         <v>69</v>
@@ -4465,7 +4486,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L61" s="26">
         <v>70</v>
@@ -4505,7 +4526,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L62" s="26">
         <v>71</v>
@@ -4545,7 +4566,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L63" s="26">
         <v>72</v>
@@ -4585,7 +4606,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L64" s="26">
         <v>73</v>
@@ -4625,7 +4646,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L65" s="26">
         <v>75</v>
@@ -4665,7 +4686,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L66" s="26">
         <v>76</v>
@@ -4705,7 +4726,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L67" s="26">
         <v>77</v>
@@ -4745,7 +4766,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L68" s="26">
         <v>79</v>
@@ -4785,7 +4806,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L69" s="26">
         <v>80</v>
@@ -4825,7 +4846,7 @@
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
       <c r="K70" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L70" s="26">
         <v>81</v>
@@ -4865,7 +4886,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L71" s="26">
         <v>82</v>
@@ -4905,7 +4926,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L72" s="26">
         <v>83</v>
@@ -4945,7 +4966,7 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L73" s="26">
         <v>84</v>
@@ -4985,7 +5006,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L74" s="26">
         <v>85</v>
@@ -5025,7 +5046,7 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L75" s="26">
         <v>86</v>
@@ -5065,7 +5086,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L76" s="26">
         <v>87</v>
@@ -5105,7 +5126,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L77" s="26">
         <v>88</v>
@@ -5145,7 +5166,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L78" s="26">
         <v>89</v>
@@ -5185,7 +5206,7 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L79" s="26">
         <v>90</v>
@@ -5225,7 +5246,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L80" s="26">
         <v>91</v>
@@ -5265,7 +5286,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L81" s="26">
         <v>92</v>
@@ -5305,7 +5326,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L82" s="26">
         <v>94</v>
@@ -5345,7 +5366,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L83" s="26">
         <v>95</v>
@@ -5385,7 +5406,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L84" s="26">
         <v>96</v>
@@ -5425,7 +5446,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L85" s="26">
         <v>97</v>
@@ -5465,7 +5486,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L86" s="26">
         <v>98</v>
@@ -5505,7 +5526,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L87" s="26">
         <v>100</v>
@@ -5545,7 +5566,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
       <c r="K88" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L88" s="26">
         <v>101</v>
@@ -5585,7 +5606,7 @@
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
       <c r="K89" s="25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L89" s="26">
         <v>102</v>
@@ -5625,7 +5646,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L90" s="26">
         <v>103</v>
@@ -5665,7 +5686,7 @@
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L91" s="26">
         <v>104</v>
@@ -5705,7 +5726,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
       <c r="K92" s="25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L92" s="26">
         <v>105</v>
@@ -5745,7 +5766,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
       <c r="K93" s="25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L93" s="26">
         <v>106</v>
@@ -5785,7 +5806,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
       <c r="K94" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L94" s="26">
         <v>107</v>
@@ -5825,7 +5846,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
       <c r="K95" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L95" s="26">
         <v>108</v>
@@ -5865,7 +5886,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
       <c r="K96" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L96" s="26">
         <v>109</v>
@@ -5905,7 +5926,7 @@
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L97" s="26">
         <v>110</v>
@@ -5945,7 +5966,7 @@
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L98" s="26">
         <v>111</v>
@@ -5985,7 +6006,7 @@
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L99" s="26">
         <v>112</v>
@@ -6025,7 +6046,7 @@
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L100" s="26">
         <v>113</v>
@@ -6065,7 +6086,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
       <c r="K101" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L101" s="26">
         <v>114</v>
@@ -6105,7 +6126,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
       <c r="K102" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L102" s="26">
         <v>116</v>
@@ -6145,7 +6166,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L103" s="26">
         <v>117</v>
@@ -6185,7 +6206,7 @@
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L104" s="26">
         <v>118</v>
@@ -6225,7 +6246,7 @@
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L105" s="26">
         <v>119</v>
@@ -6265,7 +6286,7 @@
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
       <c r="K106" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L106" s="26">
         <v>120</v>
@@ -6305,7 +6326,7 @@
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
       <c r="K107" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L107" s="26">
         <v>121</v>
@@ -6345,7 +6366,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
       <c r="K108" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L108" s="26">
         <v>122</v>
@@ -6385,7 +6406,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
       <c r="K109" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L109" s="26">
         <v>124</v>
@@ -6425,7 +6446,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
       <c r="K110" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L110" s="26">
         <v>125</v>
@@ -6465,7 +6486,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
       <c r="K111" s="25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L111" s="26">
         <v>126</v>
@@ -6505,7 +6526,7 @@
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
       <c r="K112" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L112" s="26">
         <v>127</v>
@@ -6545,7 +6566,7 @@
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
       <c r="K113" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L113" s="26">
         <v>128</v>
@@ -6585,7 +6606,7 @@
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
       <c r="K114" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L114" s="26">
         <v>129</v>
@@ -6625,7 +6646,7 @@
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
       <c r="K115" s="25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L115" s="26">
         <v>130</v>
@@ -6665,7 +6686,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
       <c r="K116" s="25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L116" s="26">
         <v>131</v>
@@ -6705,7 +6726,7 @@
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
       <c r="K117" s="25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L117" s="26">
         <v>132</v>
@@ -6745,7 +6766,7 @@
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
       <c r="K118" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L118" s="26">
         <v>134</v>
@@ -6785,7 +6806,7 @@
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
       <c r="K119" s="25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L119" s="26">
         <v>135</v>
@@ -6825,7 +6846,7 @@
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
       <c r="K120" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L120" s="26">
         <v>136</v>
@@ -6865,7 +6886,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="16"/>
       <c r="K121" s="25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L121" s="26">
         <v>137</v>
@@ -6905,7 +6926,7 @@
       <c r="I122" s="16"/>
       <c r="J122" s="16"/>
       <c r="K122" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L122" s="26">
         <v>138</v>
@@ -6945,7 +6966,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="16"/>
       <c r="K123" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L123" s="26">
         <v>139</v>
@@ -6985,7 +7006,7 @@
       <c r="I124" s="16"/>
       <c r="J124" s="16"/>
       <c r="K124" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L124" s="26">
         <v>140</v>
@@ -7025,7 +7046,7 @@
       <c r="I125" s="16"/>
       <c r="J125" s="16"/>
       <c r="K125" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L125" s="26">
         <v>141</v>
@@ -7065,7 +7086,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="16"/>
       <c r="K126" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L126" s="26">
         <v>142</v>
@@ -7105,7 +7126,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="16"/>
       <c r="K127" s="25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L127" s="26">
         <v>143</v>
@@ -7145,7 +7166,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
       <c r="K128" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L128" s="26">
         <v>144</v>
@@ -7185,7 +7206,7 @@
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
       <c r="K129" s="25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L129" s="26">
         <v>145</v>
@@ -7223,7 +7244,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
       <c r="K130" s="25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L130" s="26">
         <v>146</v>
@@ -7263,7 +7284,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
       <c r="K131" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L131" s="26">
         <v>147</v>
@@ -7303,7 +7324,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
       <c r="K132" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L132" s="26">
         <v>148</v>
@@ -7343,7 +7364,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
       <c r="K133" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L133" s="26">
         <v>149</v>
@@ -7383,7 +7404,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
       <c r="K134" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L134" s="26">
         <v>152</v>
@@ -7423,7 +7444,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
       <c r="K135" s="25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L135" s="26">
         <v>153</v>
@@ -7463,7 +7484,7 @@
       <c r="I136" s="16"/>
       <c r="J136" s="16"/>
       <c r="K136" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L136" s="26">
         <v>154</v>
@@ -7503,7 +7524,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="16"/>
       <c r="K137" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L137" s="26">
         <v>155</v>
@@ -7543,7 +7564,7 @@
       <c r="I138" s="16"/>
       <c r="J138" s="16"/>
       <c r="K138" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L138" s="26">
         <v>156</v>
@@ -7583,7 +7604,7 @@
       <c r="I139" s="16"/>
       <c r="J139" s="16"/>
       <c r="K139" s="25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L139" s="26">
         <v>159</v>
@@ -7623,7 +7644,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="16"/>
       <c r="K140" s="25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L140" s="26">
         <v>161</v>
@@ -7663,7 +7684,7 @@
       <c r="I141" s="16"/>
       <c r="J141" s="16"/>
       <c r="K141" s="25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L141" s="26">
         <v>162</v>
@@ -7703,7 +7724,7 @@
       <c r="I142" s="16"/>
       <c r="J142" s="16"/>
       <c r="K142" s="25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L142" s="26">
         <v>163</v>
@@ -7743,7 +7764,7 @@
       <c r="I143" s="16"/>
       <c r="J143" s="16"/>
       <c r="K143" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L143" s="26">
         <v>164</v>
@@ -7783,7 +7804,7 @@
       <c r="I144" s="16"/>
       <c r="J144" s="16"/>
       <c r="K144" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L144" s="26">
         <v>165</v>
@@ -7823,7 +7844,7 @@
       <c r="I145" s="16"/>
       <c r="J145" s="16"/>
       <c r="K145" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L145" s="26">
         <v>166</v>
@@ -7863,7 +7884,7 @@
       <c r="I146" s="16"/>
       <c r="J146" s="16"/>
       <c r="K146" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L146" s="26">
         <v>167</v>
@@ -7903,7 +7924,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="16"/>
       <c r="K147" s="25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L147" s="26">
         <v>168</v>
@@ -7943,7 +7964,7 @@
       <c r="I148" s="16"/>
       <c r="J148" s="16"/>
       <c r="K148" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L148" s="26">
         <v>169</v>
@@ -7983,7 +8004,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="16"/>
       <c r="K149" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L149" s="26">
         <v>170</v>
@@ -8023,7 +8044,7 @@
       <c r="I150" s="16"/>
       <c r="J150" s="16"/>
       <c r="K150" s="25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L150" s="26">
         <v>171</v>
@@ -8063,7 +8084,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="16"/>
       <c r="K151" s="25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L151" s="26">
         <v>172</v>
@@ -8103,7 +8124,7 @@
       <c r="I152" s="16"/>
       <c r="J152" s="16"/>
       <c r="K152" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L152" s="26">
         <v>173</v>
@@ -8143,7 +8164,7 @@
       <c r="I153" s="16"/>
       <c r="J153" s="16"/>
       <c r="K153" s="25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L153" s="26">
         <v>174</v>
@@ -8183,7 +8204,7 @@
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
       <c r="K154" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L154" s="26">
         <v>175</v>
@@ -8223,7 +8244,7 @@
       <c r="I155" s="16"/>
       <c r="J155" s="16"/>
       <c r="K155" s="25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L155" s="26">
         <v>176</v>
@@ -8263,7 +8284,7 @@
       <c r="I156" s="16"/>
       <c r="J156" s="16"/>
       <c r="K156" s="25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L156" s="26">
         <v>177</v>
@@ -8303,7 +8324,7 @@
       <c r="I157" s="16"/>
       <c r="J157" s="16"/>
       <c r="K157" s="25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L157" s="26">
         <v>178</v>
@@ -8341,7 +8362,7 @@
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
       <c r="K158" s="25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L158" s="26">
         <v>179</v>
@@ -8381,7 +8402,7 @@
       <c r="I159" s="16"/>
       <c r="J159" s="16"/>
       <c r="K159" s="25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L159" s="26">
         <v>180</v>
@@ -8421,7 +8442,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
       <c r="K160" s="25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L160" s="26">
         <v>182</v>
@@ -8461,7 +8482,7 @@
       <c r="I161" s="16"/>
       <c r="J161" s="16"/>
       <c r="K161" s="25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L161" s="26">
         <v>183</v>
@@ -8501,7 +8522,7 @@
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
       <c r="K162" s="25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L162" s="26">
         <v>184</v>
@@ -8541,7 +8562,7 @@
       <c r="I163" s="16"/>
       <c r="J163" s="16"/>
       <c r="K163" s="25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L163" s="26">
         <v>185</v>
@@ -8579,7 +8600,7 @@
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
       <c r="K164" s="25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L164" s="26">
         <v>186</v>
@@ -8619,7 +8640,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="16"/>
       <c r="K165" s="25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L165" s="26">
         <v>188</v>
@@ -8659,7 +8680,7 @@
       <c r="I166" s="16"/>
       <c r="J166" s="16"/>
       <c r="K166" s="25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L166" s="26">
         <v>189</v>
@@ -8699,7 +8720,7 @@
       <c r="I167" s="16"/>
       <c r="J167" s="16"/>
       <c r="K167" s="25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L167" s="26">
         <v>192</v>
@@ -8739,7 +8760,7 @@
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
       <c r="K168" s="25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L168" s="26">
         <v>193</v>
@@ -8779,7 +8800,7 @@
       <c r="I169" s="16"/>
       <c r="J169" s="16"/>
       <c r="K169" s="25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L169" s="26">
         <v>194</v>
@@ -8819,7 +8840,7 @@
       <c r="I170" s="16"/>
       <c r="J170" s="16"/>
       <c r="K170" s="25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L170" s="26">
         <v>196</v>
@@ -8859,7 +8880,7 @@
       <c r="I171" s="16"/>
       <c r="J171" s="16"/>
       <c r="K171" s="25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L171" s="26">
         <v>197</v>
@@ -8899,7 +8920,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="16"/>
       <c r="K172" s="25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L172" s="26">
         <v>199</v>
@@ -8939,7 +8960,7 @@
       <c r="I173" s="16"/>
       <c r="J173" s="16"/>
       <c r="K173" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L173" s="26">
         <v>200</v>
@@ -8979,7 +9000,7 @@
       <c r="I174" s="16"/>
       <c r="J174" s="16"/>
       <c r="K174" s="25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L174" s="26">
         <v>201</v>
@@ -9019,7 +9040,7 @@
       <c r="I175" s="16"/>
       <c r="J175" s="16"/>
       <c r="K175" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L175" s="26">
         <v>202</v>
@@ -9059,7 +9080,7 @@
       <c r="I176" s="16"/>
       <c r="J176" s="16"/>
       <c r="K176" s="25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L176" s="26">
         <v>203</v>
@@ -9099,7 +9120,7 @@
       <c r="I177" s="16"/>
       <c r="J177" s="16"/>
       <c r="K177" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L177" s="26">
         <v>204</v>
@@ -9139,7 +9160,7 @@
       <c r="I178" s="16"/>
       <c r="J178" s="16"/>
       <c r="K178" s="25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L178" s="26">
         <v>205</v>
@@ -9179,7 +9200,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="16"/>
       <c r="K179" s="25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L179" s="26">
         <v>206</v>
@@ -9219,7 +9240,7 @@
       <c r="I180" s="16"/>
       <c r="J180" s="16"/>
       <c r="K180" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L180" s="26">
         <v>207</v>
@@ -9259,7 +9280,7 @@
       <c r="I181" s="16"/>
       <c r="J181" s="16"/>
       <c r="K181" s="25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L181" s="26">
         <v>208</v>
@@ -9299,7 +9320,7 @@
       <c r="I182" s="16"/>
       <c r="J182" s="16"/>
       <c r="K182" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L182" s="26">
         <v>209</v>
@@ -9339,7 +9360,7 @@
       <c r="I183" s="16"/>
       <c r="J183" s="16"/>
       <c r="K183" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L183" s="26">
         <v>210</v>
@@ -9379,7 +9400,7 @@
       <c r="I184" s="16"/>
       <c r="J184" s="16"/>
       <c r="K184" s="25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L184" s="26">
         <v>211</v>
@@ -9419,7 +9440,7 @@
       <c r="I185" s="16"/>
       <c r="J185" s="16"/>
       <c r="K185" s="25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L185" s="26">
         <v>212</v>
@@ -9459,7 +9480,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="16"/>
       <c r="K186" s="25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L186" s="26">
         <v>213</v>
@@ -9499,7 +9520,7 @@
       <c r="I187" s="16"/>
       <c r="J187" s="16"/>
       <c r="K187" s="25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L187" s="26">
         <v>214</v>
@@ -9539,7 +9560,7 @@
       <c r="I188" s="16"/>
       <c r="J188" s="16"/>
       <c r="K188" s="25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L188" s="26">
         <v>215</v>
@@ -9577,7 +9598,7 @@
       <c r="I189" s="16"/>
       <c r="J189" s="16"/>
       <c r="K189" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L189" s="26">
         <v>216</v>
@@ -9617,7 +9638,7 @@
       <c r="I190" s="16"/>
       <c r="J190" s="16"/>
       <c r="K190" s="25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L190" s="26">
         <v>218</v>
@@ -9657,7 +9678,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="16"/>
       <c r="K191" s="25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L191" s="26">
         <v>219</v>
@@ -9697,7 +9718,7 @@
       <c r="I192" s="16"/>
       <c r="J192" s="16"/>
       <c r="K192" s="25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L192" s="26">
         <v>220</v>
@@ -9737,7 +9758,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="16"/>
       <c r="K193" s="25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L193" s="26">
         <v>221</v>
@@ -9777,7 +9798,7 @@
       <c r="I194" s="16"/>
       <c r="J194" s="16"/>
       <c r="K194" s="25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L194" s="26">
         <v>223</v>
@@ -9817,7 +9838,7 @@
       <c r="I195" s="16"/>
       <c r="J195" s="16"/>
       <c r="K195" s="25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L195" s="26">
         <v>224</v>
@@ -9857,7 +9878,7 @@
       <c r="I196" s="16"/>
       <c r="J196" s="16"/>
       <c r="K196" s="25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L196" s="26">
         <v>225</v>
@@ -9897,7 +9918,7 @@
       <c r="I197" s="16"/>
       <c r="J197" s="16"/>
       <c r="K197" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L197" s="26">
         <v>228</v>
@@ -9937,7 +9958,7 @@
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
       <c r="K198" s="25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L198" s="26">
         <v>229</v>
@@ -9977,7 +9998,7 @@
       <c r="I199" s="16"/>
       <c r="J199" s="16"/>
       <c r="K199" s="25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L199" s="26">
         <v>231</v>
@@ -10017,7 +10038,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="16"/>
       <c r="K200" s="25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L200" s="26">
         <v>232</v>
@@ -10057,7 +10078,7 @@
       <c r="I201" s="16"/>
       <c r="J201" s="16"/>
       <c r="K201" s="25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L201" s="26">
         <v>233</v>
@@ -10097,7 +10118,7 @@
       <c r="I202" s="16"/>
       <c r="J202" s="16"/>
       <c r="K202" s="25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L202" s="26">
         <v>234</v>
@@ -10137,7 +10158,7 @@
       <c r="I203" s="16"/>
       <c r="J203" s="16"/>
       <c r="K203" s="25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L203" s="26">
         <v>237</v>
@@ -10174,7 +10195,7 @@
     </row>
     <row r="204" spans="1:40">
       <c r="K204" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L204" s="26">
         <v>238</v>
@@ -10185,7 +10206,7 @@
     </row>
     <row r="205" spans="1:40">
       <c r="K205" s="25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L205" s="26">
         <v>239</v>
@@ -10196,7 +10217,7 @@
     </row>
     <row r="206" spans="1:40">
       <c r="K206" s="25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L206" s="26">
         <v>240</v>
@@ -10207,7 +10228,7 @@
     </row>
     <row r="207" spans="1:40">
       <c r="K207" s="25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L207" s="26">
         <v>241</v>
@@ -10218,7 +10239,7 @@
     </row>
     <row r="208" spans="1:40">
       <c r="K208" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L208" s="26">
         <v>242</v>
@@ -10229,7 +10250,7 @@
     </row>
     <row r="209" spans="1:40">
       <c r="K209" s="25" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L209" s="26">
         <v>243</v>
@@ -10240,7 +10261,7 @@
     </row>
     <row r="210" spans="1:40">
       <c r="K210" s="25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L210" s="26">
         <v>244</v>
@@ -10251,7 +10272,7 @@
     </row>
     <row r="211" spans="1:40">
       <c r="K211" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L211" s="26">
         <v>245</v>
@@ -10262,7 +10283,7 @@
     </row>
     <row r="212" spans="1:40">
       <c r="K212" s="25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L212" s="26">
         <v>246</v>
@@ -10273,7 +10294,7 @@
     </row>
     <row r="213" spans="1:40">
       <c r="K213" s="25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L213" s="26">
         <v>247</v>
@@ -10284,7 +10305,7 @@
     </row>
     <row r="214" spans="1:40">
       <c r="K214" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L214" s="26">
         <v>248</v>
@@ -12418,7 +12439,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="63" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
